--- a/corpus/mansi/meta.xlsx
+++ b/corpus/mansi/meta.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\zsystem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\GitHub\mansi_corpus\corpus\mansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E908F71-7107-447A-9F13-3721BF04744C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188CA12-B3C4-4283-8E5A-377DEDA54756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-7065" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="meta" localSheetId="0">meta!$A$1:$I$57</definedName>
+    <definedName name="meta" localSheetId="0">meta!$A$1:$J$57</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="116">
   <si>
     <t>filename</t>
   </si>
@@ -364,6 +364,33 @@
   </si>
   <si>
     <t>BPS_AEJ_AVV_DZh_SP_shlyapa1</t>
+  </si>
+  <si>
+    <t>OM__DZh_VKh_250220_life</t>
+  </si>
+  <si>
+    <t>Оманова Тамара</t>
+  </si>
+  <si>
+    <t>Саранпауль</t>
+  </si>
+  <si>
+    <t>HSG__DZh_Vkh_260220_life</t>
+  </si>
+  <si>
+    <t>Хатанзеева Светлана Герасимовна</t>
+  </si>
+  <si>
+    <t>Ломбовож</t>
+  </si>
+  <si>
+    <t>Dialect</t>
+  </si>
+  <si>
+    <t>Верхнелозьвинский</t>
+  </si>
+  <si>
+    <t>Сосьвинский</t>
   </si>
 </sst>
 </file>
@@ -371,7 +398,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -424,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -438,14 +465,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{ED2C8574-4EE8-4F1F-8804-7C29A1F7194C}"/>
@@ -789,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,13 +834,13 @@
     <col min="2" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7265625" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" customWidth="1"/>
-    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.453125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -826,15 +859,18 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -853,11 +889,14 @@
       <c r="F2" s="7">
         <v>1.6319444444444445E-3</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -876,11 +915,14 @@
       <c r="F3" s="7">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -899,11 +941,14 @@
       <c r="F4" s="7">
         <v>3.0324074074074073E-3</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -922,11 +967,14 @@
       <c r="F5" s="7">
         <v>1.3541666666666667E-3</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -945,11 +993,14 @@
       <c r="F6" s="7">
         <v>3.9351851851851852E-4</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -968,11 +1019,14 @@
       <c r="F7" s="7">
         <v>1.0185185185185186E-3</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -991,11 +1045,14 @@
       <c r="F8" s="7">
         <v>7.0601851851851841E-3</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,11 +1071,14 @@
       <c r="F9" s="7">
         <v>2.2106481481481478E-3</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1037,11 +1097,14 @@
       <c r="F10" s="7">
         <v>1.3541666666666667E-3</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1060,11 +1123,14 @@
       <c r="F11" s="7">
         <v>2.8472222222222219E-3</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1083,11 +1149,14 @@
       <c r="F12" s="7">
         <v>3.1944444444444442E-3</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,11 +1175,14 @@
       <c r="F13" s="7">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1129,13 +1201,16 @@
       <c r="F14" s="7">
         <v>4.0740740740740746E-3</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1154,11 +1229,14 @@
       <c r="F15" s="7">
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1177,11 +1255,14 @@
       <c r="F16" s="7">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1200,11 +1281,14 @@
       <c r="F17" s="7">
         <v>6.7129629629629625E-4</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,11 +1307,14 @@
       <c r="F18" s="7">
         <v>1.3773148148148147E-3</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1246,11 +1333,14 @@
       <c r="F19" s="7">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1269,11 +1359,14 @@
       <c r="F20" s="7">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1292,11 +1385,14 @@
       <c r="F21" s="7">
         <v>6.215277777777777E-3</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1315,11 +1411,14 @@
       <c r="F22" s="7">
         <v>3.3680555555555551E-3</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1338,11 +1437,14 @@
       <c r="F23" s="7">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1361,11 +1463,14 @@
       <c r="F24" s="7">
         <v>3.5879629629629635E-4</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1384,11 +1489,14 @@
       <c r="F25" s="7">
         <v>5.1967592592592595E-3</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -1407,11 +1515,14 @@
       <c r="F26" s="7">
         <v>4.8842592592592592E-3</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1430,11 +1541,14 @@
       <c r="F27" s="7">
         <v>1.6782407407407406E-3</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1453,11 +1567,14 @@
       <c r="F28" s="7">
         <v>2.5115740740740741E-3</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1476,11 +1593,14 @@
       <c r="F29" s="7">
         <v>4.7569444444444447E-3</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1499,11 +1619,14 @@
       <c r="F30" s="7">
         <v>3.9120370370370368E-3</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1522,11 +1645,14 @@
       <c r="F31" s="7">
         <v>2.0601851851851853E-3</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1545,11 +1671,14 @@
       <c r="F32" s="7">
         <v>1.0069444444444444E-3</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1568,11 +1697,14 @@
       <c r="F33" s="7">
         <v>1.3657407407407409E-3</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1591,11 +1723,14 @@
       <c r="F34" s="7">
         <v>2.0486111111111113E-3</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1614,11 +1749,14 @@
       <c r="F35" s="7">
         <v>2.3611111111111111E-3</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -1637,11 +1775,14 @@
       <c r="F36" s="7">
         <v>5.3240740740740744E-4</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1660,11 +1801,14 @@
       <c r="F37" s="7">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -1683,11 +1827,14 @@
       <c r="F38" s="7">
         <v>7.7546296296296304E-4</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -1706,11 +1853,14 @@
       <c r="F39" s="7">
         <v>8.564814814814815E-4</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -1729,11 +1879,14 @@
       <c r="F40" s="7">
         <v>5.0925925925925921E-4</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1752,11 +1905,14 @@
       <c r="F41" s="7">
         <v>4.4212962962962956E-3</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1775,11 +1931,14 @@
       <c r="F42" s="7">
         <v>4.3981481481481481E-4</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -1798,11 +1957,14 @@
       <c r="F43" s="7">
         <v>1.9027777777777779E-2</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -1821,11 +1983,14 @@
       <c r="F44" s="7">
         <v>2.9386574074074075E-2</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
@@ -1844,11 +2009,14 @@
       <c r="F45" s="7">
         <v>3.0324074074074073E-3</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
@@ -1867,11 +2035,14 @@
       <c r="F46" s="7">
         <v>1.6319444444444445E-3</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
@@ -1890,11 +2061,14 @@
       <c r="F47" s="9">
         <v>6.5509259259259262E-3</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -1913,11 +2087,14 @@
       <c r="F48" s="9">
         <v>2.5925925925925925E-3</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -1936,11 +2113,14 @@
       <c r="F49" s="9">
         <v>5.0347222222222225E-3</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -1959,11 +2139,14 @@
       <c r="F50" s="9">
         <v>8.2175925925925917E-4</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -1982,11 +2165,14 @@
       <c r="F51" s="9">
         <v>1.5624999999999999E-3</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="G51" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
@@ -2005,11 +2191,14 @@
       <c r="F52" s="9">
         <v>5.2083333333333333E-4</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
@@ -2028,11 +2217,14 @@
       <c r="F53" s="9">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2051,11 +2243,14 @@
       <c r="F54" s="7">
         <v>1.4699074074074074E-3</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
@@ -2074,11 +2269,14 @@
       <c r="F55" s="7">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
@@ -2097,11 +2295,14 @@
       <c r="F56" s="7">
         <v>1.5393518518518519E-3</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -2120,11 +2321,14 @@
       <c r="F57" s="7">
         <v>1.3310185185185185E-3</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>76</v>
       </c>
@@ -2143,11 +2347,14 @@
       <c r="F58" s="7">
         <v>4.2824074074074075E-4</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -2166,11 +2373,14 @@
       <c r="F59" s="7">
         <v>8.449074074074075E-4</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>78</v>
       </c>
@@ -2189,11 +2399,14 @@
       <c r="F60" s="7">
         <v>3.2060185185185191E-3</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -2212,11 +2425,14 @@
       <c r="F61" s="7">
         <v>2.0023148148148148E-3</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>80</v>
       </c>
@@ -2235,11 +2451,14 @@
       <c r="F62" s="7">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -2258,11 +2477,14 @@
       <c r="F63" s="7">
         <v>2.3958333333333336E-3</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>82</v>
       </c>
@@ -2281,11 +2503,14 @@
       <c r="F64" s="7">
         <v>2.3148148148148151E-3</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>83</v>
       </c>
@@ -2304,11 +2529,14 @@
       <c r="F65" s="7">
         <v>4.0509259259259258E-4</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>84</v>
       </c>
@@ -2327,11 +2555,14 @@
       <c r="F66" s="7">
         <v>1.7939814814814815E-3</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>85</v>
       </c>
@@ -2350,11 +2581,14 @@
       <c r="F67" s="7">
         <v>8.9120370370370362E-4</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -2373,11 +2607,14 @@
       <c r="F68" s="7">
         <v>3.2870370370370367E-3</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -2396,11 +2633,14 @@
       <c r="F69" s="7">
         <v>1.0069444444444444E-3</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -2419,11 +2659,14 @@
       <c r="F70" s="7">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="G70" s="2"/>
+      <c r="G70" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
@@ -2442,11 +2685,14 @@
       <c r="F71" s="7">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -2465,11 +2711,14 @@
       <c r="F72" s="7">
         <v>3.2291666666666666E-3</v>
       </c>
-      <c r="G72" s="2"/>
+      <c r="G72" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
@@ -2488,11 +2737,14 @@
       <c r="F73" s="7">
         <v>3.414351851851852E-3</v>
       </c>
-      <c r="G73" s="2"/>
+      <c r="G73" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
@@ -2511,11 +2763,14 @@
       <c r="F74" s="7">
         <v>1.1458333333333333E-3</v>
       </c>
-      <c r="G74" s="2"/>
+      <c r="G74" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
@@ -2534,11 +2789,14 @@
       <c r="F75" s="7">
         <v>4.9768518518518521E-4</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="G75" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>94</v>
       </c>
@@ -2557,9 +2815,64 @@
       <c r="F76" s="7">
         <v>1.2037037037037038E-3</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="4">
+        <v>43886</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1.5428240740740741E-2</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43887</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/corpus/mansi/meta.xlsx
+++ b/corpus/mansi/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\GitHub\mansi_corpus\corpus\mansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188CA12-B3C4-4283-8E5A-377DEDA54756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925F208-14D3-4214-B3E5-2C6C25B115CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-7065" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="121">
   <si>
     <t>filename</t>
   </si>
@@ -391,6 +391,21 @@
   </si>
   <si>
     <t>Сосьвинский</t>
+  </si>
+  <si>
+    <t>Internat_Nikita_winter</t>
+  </si>
+  <si>
+    <t>Internat_Nadya&amp;Nastya_winter</t>
+  </si>
+  <si>
+    <t>Пакин Никита</t>
+  </si>
+  <si>
+    <t>Бахтиярова Настя, Анямова Надя</t>
+  </si>
+  <si>
+    <t>Полуночное</t>
   </si>
 </sst>
 </file>
@@ -438,10 +453,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -451,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -478,6 +504,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A79" activeCellId="1" sqref="A80 A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2874,6 +2904,52 @@
         <v>110</v>
       </c>
     </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" s="13">
+        <v>43892</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="13">
+        <v>43892</v>
+      </c>
+      <c r="F80" s="7">
+        <v>3.0671296296296297E-3</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/corpus/mansi/meta.xlsx
+++ b/corpus/mansi/meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\GitHub\mansi_corpus\corpus\mansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0925F208-14D3-4214-B3E5-2C6C25B115CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC26D6B-71F7-45A5-8B17-82E190398B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-7065" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="122">
   <si>
     <t>filename</t>
   </si>
@@ -363,9 +363,6 @@
     <t>BPS_AEJ_AVV_DZh_SP_shlyapa2</t>
   </si>
   <si>
-    <t>BPS_AEJ_AVV_DZh_SP_shlyapa1</t>
-  </si>
-  <si>
     <t>OM__DZh_VKh_250220_life</t>
   </si>
   <si>
@@ -406,6 +403,12 @@
   </si>
   <si>
     <t>Полуночное</t>
+  </si>
+  <si>
+    <t>BP_AE_AV_DZh_SP_shlyapa1</t>
+  </si>
+  <si>
+    <t>BP_AE_AV_DZh_SP_shlyapa2</t>
   </si>
 </sst>
 </file>
@@ -854,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A79" activeCellId="1" sqref="A80 A79"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,7 +893,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -920,7 +923,7 @@
         <v>1.6319444444444445E-3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -946,7 +949,7 @@
         <v>8.2175925925925917E-4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -972,7 +975,7 @@
         <v>3.0324074074074073E-3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -998,7 +1001,7 @@
         <v>1.3541666666666667E-3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1024,7 +1027,7 @@
         <v>3.9351851851851852E-4</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1050,7 +1053,7 @@
         <v>1.0185185185185186E-3</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1076,7 +1079,7 @@
         <v>7.0601851851851841E-3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1102,7 +1105,7 @@
         <v>2.2106481481481478E-3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1128,7 +1131,7 @@
         <v>1.3541666666666667E-3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1154,7 +1157,7 @@
         <v>2.8472222222222219E-3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1180,7 +1183,7 @@
         <v>3.1944444444444442E-3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1206,7 +1209,7 @@
         <v>3.5879629629629635E-4</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1232,7 +1235,7 @@
         <v>4.0740740740740746E-3</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>57</v>
@@ -1260,7 +1263,7 @@
         <v>8.449074074074075E-4</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1286,7 +1289,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1312,7 +1315,7 @@
         <v>6.7129629629629625E-4</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1338,7 +1341,7 @@
         <v>1.3773148148148147E-3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1364,7 +1367,7 @@
         <v>4.9768518518518521E-4</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1390,7 +1393,7 @@
         <v>9.6064814814814808E-4</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1416,7 +1419,7 @@
         <v>6.215277777777777E-3</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1442,7 +1445,7 @@
         <v>3.3680555555555551E-3</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1468,7 +1471,7 @@
         <v>1.3888888888888889E-4</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1494,7 +1497,7 @@
         <v>3.5879629629629635E-4</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1520,7 +1523,7 @@
         <v>5.1967592592592595E-3</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1546,7 +1549,7 @@
         <v>4.8842592592592592E-3</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1572,7 +1575,7 @@
         <v>1.6782407407407406E-3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1598,7 +1601,7 @@
         <v>2.5115740740740741E-3</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1624,7 +1627,7 @@
         <v>4.7569444444444447E-3</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1650,7 +1653,7 @@
         <v>3.9120370370370368E-3</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1676,7 +1679,7 @@
         <v>2.0601851851851853E-3</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1702,7 +1705,7 @@
         <v>1.0069444444444444E-3</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1728,7 +1731,7 @@
         <v>1.3657407407407409E-3</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1754,7 +1757,7 @@
         <v>2.0486111111111113E-3</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1780,7 +1783,7 @@
         <v>2.3611111111111111E-3</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1806,7 +1809,7 @@
         <v>5.3240740740740744E-4</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1832,7 +1835,7 @@
         <v>8.2175925925925917E-4</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1858,7 +1861,7 @@
         <v>7.7546296296296304E-4</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1884,7 +1887,7 @@
         <v>8.564814814814815E-4</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1910,7 +1913,7 @@
         <v>5.0925925925925921E-4</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1936,7 +1939,7 @@
         <v>4.4212962962962956E-3</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1962,7 +1965,7 @@
         <v>4.3981481481481481E-4</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="43" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>96</v>
@@ -1988,7 +1991,7 @@
         <v>1.9027777777777779E-2</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="44" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>96</v>
@@ -2014,7 +2017,7 @@
         <v>2.9386574074074075E-2</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2040,7 +2043,7 @@
         <v>3.0324074074074073E-3</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2066,7 +2069,7 @@
         <v>1.6319444444444445E-3</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2092,7 +2095,7 @@
         <v>6.5509259259259262E-3</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2118,7 +2121,7 @@
         <v>2.5925925925925925E-3</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2144,7 +2147,7 @@
         <v>5.0347222222222225E-3</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2170,7 +2173,7 @@
         <v>8.2175925925925917E-4</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2196,7 +2199,7 @@
         <v>1.5624999999999999E-3</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2222,7 +2225,7 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2248,7 +2251,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2274,7 +2277,7 @@
         <v>1.4699074074074074E-3</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2300,7 +2303,7 @@
         <v>1.2037037037037038E-3</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -2326,7 +2329,7 @@
         <v>1.5393518518518519E-3</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2352,7 +2355,7 @@
         <v>1.3310185185185185E-3</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2378,7 +2381,7 @@
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2404,7 +2407,7 @@
         <v>8.449074074074075E-4</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2430,7 +2433,7 @@
         <v>3.2060185185185191E-3</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2456,7 +2459,7 @@
         <v>2.0023148148148148E-3</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2482,7 +2485,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2508,7 +2511,7 @@
         <v>2.3958333333333336E-3</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2534,7 +2537,7 @@
         <v>2.3148148148148151E-3</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2560,7 +2563,7 @@
         <v>4.0509259259259258E-4</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -2586,7 +2589,7 @@
         <v>1.7939814814814815E-3</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -2612,7 +2615,7 @@
         <v>8.9120370370370362E-4</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -2638,7 +2641,7 @@
         <v>3.2870370370370367E-3</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2664,7 +2667,7 @@
         <v>1.0069444444444444E-3</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2690,7 +2693,7 @@
         <v>6.134259259259259E-4</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2716,7 +2719,7 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2742,7 +2745,7 @@
         <v>3.2291666666666666E-3</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2768,7 +2771,7 @@
         <v>3.414351851851852E-3</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2794,7 +2797,7 @@
         <v>1.1458333333333333E-3</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2820,7 +2823,7 @@
         <v>4.9768518518518521E-4</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2846,7 +2849,7 @@
         <v>1.2037037037037038E-3</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2854,16 +2857,16 @@
     </row>
     <row r="77" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E77" s="4">
         <v>43886</v>
@@ -2872,24 +2875,24 @@
         <v>1.5428240740740741E-2</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" s="4">
         <v>43887</v>
@@ -2898,24 +2901,24 @@
         <v>1.3425925925925925E-3</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E79" s="13">
         <v>43892</v>
@@ -2924,21 +2927,21 @@
         <v>1.2847222222222223E-3</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E80" s="13">
         <v>43892</v>
@@ -2947,7 +2950,7 @@
         <v>3.0671296296296297E-3</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/corpus/mansi/meta.xlsx
+++ b/corpus/mansi/meta.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\GitHub\mansi_corpus\corpus\mansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC26D6B-71F7-45A5-8B17-82E190398B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6DE356-DD81-409B-A449-D8F6481E2CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-7065" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="meta" localSheetId="0">meta!$A$1:$J$57</definedName>
+    <definedName name="meta" localSheetId="0">meta!$A$1:$J$70</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="136">
   <si>
     <t>filename</t>
   </si>
@@ -171,9 +171,6 @@
     <t>TMV_DZh_SP_240717_unty</t>
   </si>
   <si>
-    <t>AAA_DZh_020218_medved</t>
-  </si>
-  <si>
     <t>AAA_SP_020218_wolfs</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>ASN_DZh_SP_030218_ekwapiris</t>
   </si>
   <si>
-    <t>BPS_AEJ_AVV_DZh_SP_shlyapa2</t>
-  </si>
-  <si>
     <t>OM__DZh_VKh_250220_life</t>
   </si>
   <si>
@@ -409,6 +403,54 @@
   </si>
   <si>
     <t>BP_AE_AV_DZh_SP_shlyapa2</t>
+  </si>
+  <si>
+    <t>AAA_DZh_300118_medved</t>
+  </si>
+  <si>
+    <t>AAA_DZh_SP_300118_wolfs.eaf</t>
+  </si>
+  <si>
+    <t>AEJ_DZh_SP_3100118_ourday.eaf</t>
+  </si>
+  <si>
+    <t>AEJ_DZh_SP_310118_myday.eaf</t>
+  </si>
+  <si>
+    <t>ASN_SP_060218_sorninai.eaf</t>
+  </si>
+  <si>
+    <t>AVV_DZh_SP_020218_dom.eaf</t>
+  </si>
+  <si>
+    <t>AVV_DZh_SP_020218_medvezhijprazdnik.eaf</t>
+  </si>
+  <si>
+    <t>AVV_DZh_SP_020218_mesyachnye.eaf</t>
+  </si>
+  <si>
+    <t>BP_EA_AV_DZh_SP_010218_shlyapa1.eaf</t>
+  </si>
+  <si>
+    <t>BP_EA_AV_DZh_SP_010218_shlyapa2.eaf</t>
+  </si>
+  <si>
+    <t>HSG__DZh_VKh_260220_life.eaf</t>
+  </si>
+  <si>
+    <t>PSP_SP_030218_misne.eaf</t>
+  </si>
+  <si>
+    <t>PSP_SP_240717_bread.eaf</t>
+  </si>
+  <si>
+    <t>TMV_DZh_VH_090719_talk.eaf</t>
+  </si>
+  <si>
+    <t>Анямова Вера Владимировна, Бахтияров Павел Савельевич, Анямов Евгений Юрьевич</t>
+  </si>
+  <si>
+    <t>Хозумова Светлана Герасимовна</t>
   </si>
 </sst>
 </file>
@@ -418,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +485,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="204"/>
@@ -480,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -512,6 +561,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{ED2C8574-4EE8-4F1F-8804-7C29A1F7194C}"/>
@@ -855,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -905,7 +955,7 @@
     </row>
     <row r="2" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -917,157 +967,157 @@
         <v>23</v>
       </c>
       <c r="E2" s="4">
-        <v>43133</v>
+        <v>43131</v>
       </c>
       <c r="F2" s="7">
         <v>1.6319444444444445E-3</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
+      <c r="A3" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4">
-        <v>42940</v>
+        <v>43131</v>
       </c>
       <c r="F3" s="7">
-        <v>8.2175925925925917E-4</v>
+        <v>9.6064814814814808E-4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
+      <c r="A4" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4">
-        <v>42941</v>
+        <v>43131</v>
       </c>
       <c r="F4" s="7">
-        <v>3.0324074074074073E-3</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
+      <c r="A5" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="4">
-        <v>43129</v>
+        <v>43131</v>
       </c>
       <c r="F5" s="7">
         <v>1.3541666666666667E-3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
+      <c r="A6" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="4">
-        <v>42928</v>
+        <v>43137</v>
       </c>
       <c r="F6" s="7">
-        <v>3.9351851851851852E-4</v>
+        <v>2.5115740740740741E-3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
+      <c r="A7" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="4">
-        <v>43137</v>
+        <v>43133</v>
       </c>
       <c r="F7" s="7">
-        <v>1.0185185185185186E-3</v>
+        <v>8.2175925925925917E-4</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
+      <c r="A8" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -1079,191 +1129,189 @@
         <v>7.0601851851851841E-3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4">
-        <v>43330</v>
+        <v>43133</v>
       </c>
       <c r="F9" s="7">
-        <v>2.2106481481481478E-3</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
+    <row r="10" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4">
-        <v>42941</v>
+        <v>43132</v>
       </c>
       <c r="F10" s="7">
-        <v>1.3541666666666667E-3</v>
+        <v>1.8796296296296297E-2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
+    <row r="11" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4">
-        <v>42940</v>
+        <v>43132</v>
       </c>
       <c r="F11" s="7">
-        <v>2.8472222222222219E-3</v>
+        <v>2.9456018518518517E-2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
+      <c r="A12" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>135</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="E12" s="4">
-        <v>43134</v>
+        <v>43887</v>
       </c>
       <c r="F12" s="7">
-        <v>3.1944444444444442E-3</v>
+        <v>1.3425925925925925E-3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+    <row r="13" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="4">
-        <v>43137</v>
+        <v>43134</v>
       </c>
       <c r="F13" s="7">
-        <v>3.5879629629629635E-4</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
+      <c r="A14" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4">
-        <v>43655</v>
+        <v>42940</v>
       </c>
       <c r="F14" s="7">
-        <v>4.0740740740740746E-3</v>
+        <v>3.7037037037037035E-4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
+      <c r="A15" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="4">
-        <v>42928</v>
+        <v>43655</v>
       </c>
       <c r="F15" s="7">
-        <v>8.449074074074075E-4</v>
+        <v>5.9490740740740745E-3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1271,25 +1319,25 @@
     </row>
     <row r="16" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4">
-        <v>42928</v>
+        <v>42940</v>
       </c>
       <c r="F16" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>8.2175925925925917E-4</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1297,25 +1345,25 @@
     </row>
     <row r="17" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4">
-        <v>42928</v>
+        <v>42941</v>
       </c>
       <c r="F17" s="7">
-        <v>6.7129629629629625E-4</v>
+        <v>3.0324074074074073E-3</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1323,25 +1371,25 @@
     </row>
     <row r="18" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="4">
-        <v>43326</v>
+        <v>43129</v>
       </c>
       <c r="F18" s="7">
-        <v>1.3773148148148147E-3</v>
+        <v>1.3541666666666667E-3</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1349,25 +1397,25 @@
     </row>
     <row r="19" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4">
-        <v>43326</v>
+        <v>42928</v>
       </c>
       <c r="F19" s="7">
-        <v>4.9768518518518521E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1375,10 +1423,10 @@
     </row>
     <row r="20" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>22</v>
@@ -1387,13 +1435,13 @@
         <v>23</v>
       </c>
       <c r="E20" s="4">
-        <v>43133</v>
+        <v>43137</v>
       </c>
       <c r="F20" s="7">
-        <v>9.6064814814814808E-4</v>
+        <v>1.0185185185185186E-3</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1401,25 +1449,25 @@
     </row>
     <row r="21" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="4">
-        <v>43317</v>
+        <v>43133</v>
       </c>
       <c r="F21" s="7">
-        <v>6.215277777777777E-3</v>
+        <v>7.0601851851851841E-3</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1427,25 +1475,25 @@
     </row>
     <row r="22" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4">
-        <v>43317</v>
+        <v>43330</v>
       </c>
       <c r="F22" s="7">
-        <v>3.3680555555555551E-3</v>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1453,25 +1501,25 @@
     </row>
     <row r="23" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E23" s="4">
-        <v>43129</v>
+        <v>42941</v>
       </c>
       <c r="F23" s="7">
-        <v>1.3888888888888889E-4</v>
+        <v>1.3541666666666667E-3</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1479,25 +1527,25 @@
     </row>
     <row r="24" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4">
-        <v>43129</v>
+        <v>42940</v>
       </c>
       <c r="F24" s="7">
-        <v>3.5879629629629635E-4</v>
+        <v>2.8472222222222219E-3</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1505,13 +1553,13 @@
     </row>
     <row r="25" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
@@ -1520,36 +1568,36 @@
         <v>43134</v>
       </c>
       <c r="F25" s="7">
-        <v>5.1967592592592595E-3</v>
+        <v>3.1944444444444442E-3</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>94</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="4">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="F26" s="7">
-        <v>4.8842592592592592E-3</v>
+        <v>3.5879629629629635E-4</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1557,51 +1605,53 @@
     </row>
     <row r="27" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="4">
-        <v>42947</v>
+        <v>43655</v>
       </c>
       <c r="F27" s="7">
-        <v>1.6782407407407406E-3</v>
+        <v>4.0740740740740746E-3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="4">
-        <v>43134</v>
+        <v>42928</v>
       </c>
       <c r="F28" s="7">
-        <v>2.5115740740740741E-3</v>
+        <v>8.449074074074075E-4</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1609,25 +1659,25 @@
     </row>
     <row r="29" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="4">
-        <v>43317</v>
+        <v>42928</v>
       </c>
       <c r="F29" s="7">
-        <v>4.7569444444444447E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1635,25 +1685,25 @@
     </row>
     <row r="30" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="4">
-        <v>43137</v>
+        <v>42928</v>
       </c>
       <c r="F30" s="7">
-        <v>3.9120370370370368E-3</v>
+        <v>6.7129629629629625E-4</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1661,25 +1711,25 @@
     </row>
     <row r="31" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="4">
-        <v>43137</v>
+        <v>43326</v>
       </c>
       <c r="F31" s="7">
-        <v>2.0601851851851853E-3</v>
+        <v>1.3773148148148147E-3</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1687,25 +1737,25 @@
     </row>
     <row r="32" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="4">
-        <v>43137</v>
+        <v>43326</v>
       </c>
       <c r="F32" s="7">
-        <v>1.0069444444444444E-3</v>
+        <v>4.9768518518518521E-4</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1713,25 +1763,25 @@
     </row>
     <row r="33" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="4">
-        <v>43137</v>
+        <v>43133</v>
       </c>
       <c r="F33" s="7">
-        <v>1.3657407407407409E-3</v>
+        <v>9.6064814814814808E-4</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1739,25 +1789,25 @@
     </row>
     <row r="34" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="4">
-        <v>43137</v>
+        <v>43317</v>
       </c>
       <c r="F34" s="7">
-        <v>2.0486111111111113E-3</v>
+        <v>6.215277777777777E-3</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1765,25 +1815,25 @@
     </row>
     <row r="35" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="4">
-        <v>43137</v>
+        <v>43317</v>
       </c>
       <c r="F35" s="7">
-        <v>2.3611111111111111E-3</v>
+        <v>3.3680555555555551E-3</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1791,25 +1841,25 @@
     </row>
     <row r="36" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="4">
-        <v>43133</v>
+        <v>43129</v>
       </c>
       <c r="F36" s="7">
-        <v>5.3240740740740744E-4</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1817,10 +1867,10 @@
     </row>
     <row r="37" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>22</v>
@@ -1829,13 +1879,13 @@
         <v>23</v>
       </c>
       <c r="E37" s="4">
-        <v>43133</v>
+        <v>43129</v>
       </c>
       <c r="F37" s="7">
-        <v>8.2175925925925917E-4</v>
+        <v>3.5879629629629635E-4</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1843,13 +1893,13 @@
     </row>
     <row r="38" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
@@ -1858,10 +1908,10 @@
         <v>43134</v>
       </c>
       <c r="F38" s="7">
-        <v>7.7546296296296304E-4</v>
+        <v>5.1967592592592595E-3</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1869,25 +1919,25 @@
     </row>
     <row r="39" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="4">
-        <v>43137</v>
+        <v>43134</v>
       </c>
       <c r="F39" s="7">
-        <v>8.564814814814815E-4</v>
+        <v>4.8842592592592592E-3</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1895,25 +1945,25 @@
     </row>
     <row r="40" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="4">
-        <v>43137</v>
+        <v>42947</v>
       </c>
       <c r="F40" s="7">
-        <v>5.0925925925925921E-4</v>
+        <v>1.6782407407407406E-3</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1921,25 +1971,25 @@
     </row>
     <row r="41" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E41" s="4">
-        <v>42940</v>
+        <v>43134</v>
       </c>
       <c r="F41" s="7">
-        <v>4.4212962962962956E-3</v>
+        <v>2.5115740740740741E-3</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1947,77 +1997,77 @@
     </row>
     <row r="42" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E42" s="4">
-        <v>42940</v>
+        <v>43317</v>
       </c>
       <c r="F42" s="7">
-        <v>4.3981481481481481E-4</v>
+        <v>4.7569444444444447E-3</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="4">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="F43" s="7">
-        <v>1.9027777777777779E-2</v>
+        <v>3.9120370370370368E-3</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E44" s="4">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="F44" s="7">
-        <v>2.9386574074074075E-2</v>
+        <v>2.0601851851851853E-3</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2025,25 +2075,25 @@
     </row>
     <row r="45" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E45" s="4">
-        <v>42777</v>
+        <v>43137</v>
       </c>
       <c r="F45" s="7">
-        <v>3.0324074074074073E-3</v>
+        <v>1.0069444444444444E-3</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2051,25 +2101,25 @@
     </row>
     <row r="46" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E46" s="4">
-        <v>42777</v>
+        <v>43137</v>
       </c>
       <c r="F46" s="7">
-        <v>1.6319444444444445E-3</v>
+        <v>1.3657407407407409E-3</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2077,25 +2127,25 @@
     </row>
     <row r="47" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>97</v>
+        <v>15</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E47" s="4">
-        <v>42777</v>
-      </c>
-      <c r="F47" s="9">
-        <v>6.5509259259259262E-3</v>
+        <v>43137</v>
+      </c>
+      <c r="F47" s="7">
+        <v>2.0486111111111113E-3</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2103,25 +2153,25 @@
     </row>
     <row r="48" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>16</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E48" s="4">
-        <v>42779</v>
-      </c>
-      <c r="F48" s="9">
-        <v>2.5925925925925925E-3</v>
+        <v>43137</v>
+      </c>
+      <c r="F48" s="7">
+        <v>2.3611111111111111E-3</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2129,25 +2179,25 @@
     </row>
     <row r="49" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>97</v>
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>102</v>
+      <c r="D49" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E49" s="4">
-        <v>42780</v>
-      </c>
-      <c r="F49" s="9">
-        <v>5.0347222222222225E-3</v>
+        <v>43133</v>
+      </c>
+      <c r="F49" s="7">
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2155,25 +2205,25 @@
     </row>
     <row r="50" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>32</v>
+      <c r="D50" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E50" s="4">
-        <v>42940</v>
-      </c>
-      <c r="F50" s="9">
+        <v>43133</v>
+      </c>
+      <c r="F50" s="7">
         <v>8.2175925925925917E-4</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2181,25 +2231,25 @@
     </row>
     <row r="51" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E51" s="4">
-        <v>42941</v>
-      </c>
-      <c r="F51" s="9">
-        <v>1.5624999999999999E-3</v>
+        <v>43134</v>
+      </c>
+      <c r="F51" s="7">
+        <v>7.7546296296296304E-4</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2207,25 +2257,25 @@
     </row>
     <row r="52" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="4">
-        <v>43133</v>
-      </c>
-      <c r="F52" s="9">
-        <v>5.2083333333333333E-4</v>
+        <v>43137</v>
+      </c>
+      <c r="F52" s="7">
+        <v>8.564814814814815E-4</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2233,25 +2283,25 @@
     </row>
     <row r="53" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="4">
-        <v>43133</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1.9675925925925926E-4</v>
+        <v>43137</v>
+      </c>
+      <c r="F53" s="7">
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2259,25 +2309,25 @@
     </row>
     <row r="54" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E54" s="4">
-        <v>43317</v>
+        <v>42940</v>
       </c>
       <c r="F54" s="7">
-        <v>1.4699074074074074E-3</v>
+        <v>4.4212962962962956E-3</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2285,77 +2335,77 @@
     </row>
     <row r="55" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E55" s="4">
-        <v>43317</v>
+        <v>42940</v>
       </c>
       <c r="F55" s="7">
-        <v>1.2037037037037038E-3</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E56" s="4">
-        <v>43319</v>
+        <v>43134</v>
       </c>
       <c r="F56" s="7">
-        <v>1.5393518518518519E-3</v>
+        <v>1.9027777777777779E-2</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="4">
-        <v>43319</v>
+        <v>43134</v>
       </c>
       <c r="F57" s="7">
-        <v>1.3310185185185185E-3</v>
+        <v>2.9386574074074075E-2</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2363,25 +2413,25 @@
     </row>
     <row r="58" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E58" s="4">
-        <v>42947</v>
+        <v>42777</v>
       </c>
       <c r="F58" s="7">
-        <v>4.2824074074074075E-4</v>
+        <v>3.0324074074074073E-3</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2389,25 +2439,25 @@
     </row>
     <row r="59" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E59" s="4">
-        <v>43317</v>
+        <v>42777</v>
       </c>
       <c r="F59" s="7">
-        <v>8.449074074074075E-4</v>
+        <v>1.6319444444444445E-3</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2415,25 +2465,25 @@
     </row>
     <row r="60" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E60" s="4">
-        <v>43328</v>
-      </c>
-      <c r="F60" s="7">
-        <v>3.2060185185185191E-3</v>
+        <v>42777</v>
+      </c>
+      <c r="F60" s="9">
+        <v>6.5509259259259262E-3</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2441,25 +2491,25 @@
     </row>
     <row r="61" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E61" s="4">
-        <v>43328</v>
-      </c>
-      <c r="F61" s="7">
-        <v>2.0023148148148148E-3</v>
+        <v>42779</v>
+      </c>
+      <c r="F61" s="9">
+        <v>2.5925925925925925E-3</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -2467,25 +2517,25 @@
     </row>
     <row r="62" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E62" s="4">
-        <v>43328</v>
-      </c>
-      <c r="F62" s="7">
-        <v>3.472222222222222E-3</v>
+        <v>42780</v>
+      </c>
+      <c r="F62" s="9">
+        <v>5.0347222222222225E-3</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2493,25 +2543,25 @@
     </row>
     <row r="63" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E63" s="4">
-        <v>43328</v>
-      </c>
-      <c r="F63" s="7">
-        <v>2.3958333333333336E-3</v>
+        <v>42940</v>
+      </c>
+      <c r="F63" s="9">
+        <v>8.2175925925925917E-4</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2519,25 +2569,25 @@
     </row>
     <row r="64" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E64" s="4">
-        <v>43328</v>
-      </c>
-      <c r="F64" s="7">
-        <v>2.3148148148148151E-3</v>
+        <v>42941</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1.5624999999999999E-3</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -2545,25 +2595,25 @@
     </row>
     <row r="65" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E65" s="4">
-        <v>42943</v>
-      </c>
-      <c r="F65" s="7">
-        <v>4.0509259259259258E-4</v>
+        <v>43133</v>
+      </c>
+      <c r="F65" s="9">
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -2571,25 +2621,25 @@
     </row>
     <row r="66" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="4">
-        <v>42943</v>
-      </c>
-      <c r="F66" s="7">
-        <v>1.7939814814814815E-3</v>
+        <v>43133</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1.9675925925925926E-4</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -2597,25 +2647,25 @@
     </row>
     <row r="67" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="4">
-        <v>42943</v>
+        <v>43317</v>
       </c>
       <c r="F67" s="7">
-        <v>8.9120370370370362E-4</v>
+        <v>1.4699074074074074E-3</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -2623,25 +2673,25 @@
     </row>
     <row r="68" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E68" s="4">
-        <v>43330</v>
+        <v>43317</v>
       </c>
       <c r="F68" s="7">
-        <v>3.2870370370370367E-3</v>
+        <v>1.2037037037037038E-3</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -2649,12 +2699,12 @@
     </row>
     <row r="69" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -2664,10 +2714,10 @@
         <v>43319</v>
       </c>
       <c r="F69" s="7">
-        <v>1.0069444444444444E-3</v>
+        <v>1.5393518518518519E-3</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2675,12 +2725,12 @@
     </row>
     <row r="70" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -2690,10 +2740,10 @@
         <v>43319</v>
       </c>
       <c r="F70" s="7">
-        <v>6.134259259259259E-4</v>
+        <v>1.3310185185185185E-3</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -2701,25 +2751,25 @@
     </row>
     <row r="71" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E71" s="4">
-        <v>42780</v>
+        <v>42947</v>
       </c>
       <c r="F71" s="7">
-        <v>1.3888888888888889E-3</v>
+        <v>4.2824074074074075E-4</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2727,25 +2777,25 @@
     </row>
     <row r="72" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E72" s="4">
-        <v>42780</v>
+        <v>43317</v>
       </c>
       <c r="F72" s="7">
-        <v>3.2291666666666666E-3</v>
+        <v>8.449074074074075E-4</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2753,25 +2803,25 @@
     </row>
     <row r="73" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E73" s="4">
-        <v>42780</v>
+        <v>43328</v>
       </c>
       <c r="F73" s="7">
-        <v>3.414351851851852E-3</v>
+        <v>3.2060185185185191E-3</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2779,25 +2829,25 @@
     </row>
     <row r="74" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="E74" s="4">
-        <v>42780</v>
+        <v>43328</v>
       </c>
       <c r="F74" s="7">
-        <v>1.1458333333333333E-3</v>
+        <v>2.0023148148148148E-3</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2805,25 +2855,25 @@
     </row>
     <row r="75" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E75" s="4">
-        <v>42941</v>
+        <v>43328</v>
       </c>
       <c r="F75" s="7">
-        <v>4.9768518518518521E-4</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2831,129 +2881,468 @@
     </row>
     <row r="76" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E76" s="4">
-        <v>42931</v>
+        <v>43328</v>
       </c>
       <c r="F76" s="7">
-        <v>1.2037037037037038E-3</v>
+        <v>2.3958333333333336E-3</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>107</v>
+      <c r="A77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>108</v>
+        <v>22</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E77" s="4">
-        <v>43886</v>
+        <v>43328</v>
       </c>
       <c r="F77" s="7">
-        <v>1.5428240740740741E-2</v>
+        <v>2.3148148148148151E-3</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>110</v>
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>111</v>
+        <v>31</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E78" s="4">
-        <v>43887</v>
+        <v>42943</v>
       </c>
       <c r="F78" s="7">
-        <v>1.3425925925925925E-3</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" s="13">
-        <v>43892</v>
+      <c r="D79" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="4">
+        <v>42943</v>
       </c>
       <c r="F79" s="7">
-        <v>1.2847222222222223E-3</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>1.7939814814814815E-3</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>118</v>
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E80" s="13">
+      <c r="D80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="4">
+        <v>42943</v>
+      </c>
+      <c r="F80" s="7">
+        <v>8.9120370370370362E-4</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43330</v>
+      </c>
+      <c r="F81" s="7">
+        <v>3.2870370370370367E-3</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="4">
+        <v>43319</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1.0069444444444444E-3</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="4">
+        <v>43319</v>
+      </c>
+      <c r="F83" s="7">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="4">
+        <v>42780</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="4">
+        <v>42780</v>
+      </c>
+      <c r="F85" s="7">
+        <v>3.2291666666666666E-3</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="4">
+        <v>42780</v>
+      </c>
+      <c r="F86" s="7">
+        <v>3.414351851851852E-3</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="4">
+        <v>42780</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1.1458333333333333E-3</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="4">
+        <v>42941</v>
+      </c>
+      <c r="F88" s="7">
+        <v>4.9768518518518521E-4</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="4">
+        <v>42931</v>
+      </c>
+      <c r="F89" s="7">
+        <v>1.2037037037037038E-3</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="4">
+        <v>43886</v>
+      </c>
+      <c r="F90" s="7">
+        <v>1.5428240740740741E-2</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="4">
+        <v>43887</v>
+      </c>
+      <c r="F91" s="7">
+        <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="13">
         <v>43892</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F92" s="7">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="13">
+        <v>43892</v>
+      </c>
+      <c r="F93" s="7">
         <v>3.0671296296296297E-3</v>
       </c>
-      <c r="G80" s="10" t="s">
-        <v>113</v>
+      <c r="G93" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/corpus/mansi/meta.xlsx
+++ b/corpus/mansi/meta.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\GitHub\mansi_corpus\corpus\mansi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Елена\mansi_corpus\corpus\mansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6DE356-DD81-409B-A449-D8F6481E2CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="meta" localSheetId="0">meta!$A$1:$J$70</definedName>
+    <definedName name="meta" localSheetId="0">meta!$A$1:$J$69</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="meta" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="meta" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\Mansi\Corpus\corpus\mansi\meta.csv" decimal="," thousands=" ">
       <textFields count="9">
         <textField/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="134">
   <si>
     <t>filename</t>
   </si>
@@ -408,55 +407,49 @@
     <t>AAA_DZh_300118_medved</t>
   </si>
   <si>
-    <t>AAA_DZh_SP_300118_wolfs.eaf</t>
-  </si>
-  <si>
-    <t>AEJ_DZh_SP_3100118_ourday.eaf</t>
-  </si>
-  <si>
-    <t>AEJ_DZh_SP_310118_myday.eaf</t>
-  </si>
-  <si>
-    <t>ASN_SP_060218_sorninai.eaf</t>
-  </si>
-  <si>
-    <t>AVV_DZh_SP_020218_dom.eaf</t>
-  </si>
-  <si>
-    <t>AVV_DZh_SP_020218_medvezhijprazdnik.eaf</t>
-  </si>
-  <si>
-    <t>AVV_DZh_SP_020218_mesyachnye.eaf</t>
-  </si>
-  <si>
-    <t>BP_EA_AV_DZh_SP_010218_shlyapa1.eaf</t>
-  </si>
-  <si>
-    <t>BP_EA_AV_DZh_SP_010218_shlyapa2.eaf</t>
-  </si>
-  <si>
-    <t>HSG__DZh_VKh_260220_life.eaf</t>
-  </si>
-  <si>
-    <t>PSP_SP_030218_misne.eaf</t>
-  </si>
-  <si>
-    <t>PSP_SP_240717_bread.eaf</t>
-  </si>
-  <si>
-    <t>TMV_DZh_VH_090719_talk.eaf</t>
-  </si>
-  <si>
     <t>Анямова Вера Владимировна, Бахтияров Павел Савельевич, Анямов Евгений Юрьевич</t>
   </si>
   <si>
-    <t>Хозумова Светлана Герасимовна</t>
+    <t>AAA_DZh_SP_300118_wolfs</t>
+  </si>
+  <si>
+    <t>AEJ_DZh_SP_3100118_ourday</t>
+  </si>
+  <si>
+    <t>AEJ_DZh_SP_310118_myday</t>
+  </si>
+  <si>
+    <t>ASN_SP_060218_sorninai</t>
+  </si>
+  <si>
+    <t>AVV_DZh_SP_020218_dom</t>
+  </si>
+  <si>
+    <t>AVV_DZh_SP_020218_medvezhijprazdnik</t>
+  </si>
+  <si>
+    <t>AVV_DZh_SP_020218_mesyachnye</t>
+  </si>
+  <si>
+    <t>BP_EA_AV_DZh_SP_010218_shlyapa1</t>
+  </si>
+  <si>
+    <t>BP_EA_AV_DZh_SP_010218_shlyapa2</t>
+  </si>
+  <si>
+    <t>PSP_SP_030218_misne</t>
+  </si>
+  <si>
+    <t>PSP_SP_240717_bread</t>
+  </si>
+  <si>
+    <t>TMV_DZh_VH_090719_talk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -564,7 +557,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{ED2C8574-4EE8-4F1F-8804-7C29A1F7194C}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,7 +574,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="meta" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="meta" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,23 +653,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -712,23 +688,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -904,26 +863,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.453125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" customWidth="1"/>
-    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,7 +912,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
@@ -979,9 +938,9 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1005,9 +964,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -1031,9 +990,9 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -1057,9 +1016,9 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>44</v>
@@ -1083,9 +1042,9 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -1109,9 +1068,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -1135,9 +1094,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>47</v>
@@ -1161,12 +1120,12 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1187,12 +1146,12 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1213,35 +1172,35 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4">
-        <v>43887</v>
+        <v>43134</v>
       </c>
       <c r="F12" s="7">
-        <v>1.3425925925925925E-3</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>37</v>
@@ -1250,13 +1209,13 @@
         <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4">
-        <v>43134</v>
+        <v>42940</v>
       </c>
       <c r="F13" s="7">
-        <v>5.0925925925925921E-4</v>
+        <v>3.7037037037037035E-4</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>111</v>
@@ -1265,24 +1224,24 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4">
-        <v>42940</v>
+        <v>43655</v>
       </c>
       <c r="F14" s="7">
-        <v>3.7037037037037035E-4</v>
+        <v>5.9490740740740745E-3</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>111</v>
@@ -1291,24 +1250,24 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>133</v>
+    <row r="15" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
-        <v>43655</v>
+        <v>42940</v>
       </c>
       <c r="F15" s="7">
-        <v>5.9490740740740745E-3</v>
+        <v>8.2175925925925917E-4</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>111</v>
@@ -1317,24 +1276,24 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="4">
-        <v>42940</v>
+        <v>42941</v>
       </c>
       <c r="F16" s="7">
-        <v>8.2175925925925917E-4</v>
+        <v>3.0324074074074073E-3</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>111</v>
@@ -1343,24 +1302,24 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4">
-        <v>42941</v>
+        <v>43129</v>
       </c>
       <c r="F17" s="7">
-        <v>3.0324074074074073E-3</v>
+        <v>1.3541666666666667E-3</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>111</v>
@@ -1369,24 +1328,24 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="4">
-        <v>43129</v>
+        <v>42928</v>
       </c>
       <c r="F18" s="7">
-        <v>1.3541666666666667E-3</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>111</v>
@@ -1395,24 +1354,24 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="4">
-        <v>42928</v>
+        <v>43137</v>
       </c>
       <c r="F19" s="7">
-        <v>3.9351851851851852E-4</v>
+        <v>1.0185185185185186E-3</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>111</v>
@@ -1421,24 +1380,24 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="4">
-        <v>43137</v>
+        <v>43133</v>
       </c>
       <c r="F20" s="7">
-        <v>1.0185185185185186E-3</v>
+        <v>7.0601851851851841E-3</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>111</v>
@@ -1447,24 +1406,24 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4">
-        <v>43133</v>
+        <v>43330</v>
       </c>
       <c r="F21" s="7">
-        <v>7.0601851851851841E-3</v>
+        <v>2.2106481481481478E-3</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>111</v>
@@ -1473,24 +1432,24 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="4">
-        <v>43330</v>
+        <v>42941</v>
       </c>
       <c r="F22" s="7">
-        <v>2.2106481481481478E-3</v>
+        <v>1.3541666666666667E-3</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>111</v>
@@ -1499,24 +1458,24 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E23" s="4">
-        <v>42941</v>
+        <v>42940</v>
       </c>
       <c r="F23" s="7">
-        <v>1.3541666666666667E-3</v>
+        <v>2.8472222222222219E-3</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>111</v>
@@ -1525,24 +1484,24 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E24" s="4">
-        <v>42940</v>
+        <v>43134</v>
       </c>
       <c r="F24" s="7">
-        <v>2.8472222222222219E-3</v>
+        <v>3.1944444444444442E-3</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>111</v>
@@ -1551,12 +1510,12 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>22</v>
@@ -1565,10 +1524,10 @@
         <v>23</v>
       </c>
       <c r="E25" s="4">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="F25" s="7">
-        <v>3.1944444444444442E-3</v>
+        <v>3.5879629629629635E-4</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>111</v>
@@ -1577,63 +1536,63 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="4">
-        <v>43137</v>
+        <v>43655</v>
       </c>
       <c r="F26" s="7">
-        <v>3.5879629629629635E-4</v>
+        <v>4.0740740740740746E-3</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="4">
-        <v>43655</v>
+        <v>42928</v>
       </c>
       <c r="F27" s="7">
-        <v>4.0740740740740746E-3</v>
+        <v>8.449074074074075E-4</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
@@ -1648,7 +1607,7 @@
         <v>42928</v>
       </c>
       <c r="F28" s="7">
-        <v>8.449074074074075E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>111</v>
@@ -1657,14 +1616,14 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1674,7 +1633,7 @@
         <v>42928</v>
       </c>
       <c r="F29" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>6.7129629629629625E-4</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>111</v>
@@ -1683,24 +1642,24 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="4">
-        <v>42928</v>
+        <v>43326</v>
       </c>
       <c r="F30" s="7">
-        <v>6.7129629629629625E-4</v>
+        <v>1.3773148148148147E-3</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>111</v>
@@ -1709,14 +1668,14 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1726,7 +1685,7 @@
         <v>43326</v>
       </c>
       <c r="F31" s="7">
-        <v>1.3773148148148147E-3</v>
+        <v>4.9768518518518521E-4</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>111</v>
@@ -1735,24 +1694,24 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="4">
-        <v>43326</v>
+        <v>43133</v>
       </c>
       <c r="F32" s="7">
-        <v>4.9768518518518521E-4</v>
+        <v>9.6064814814814808E-4</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>111</v>
@@ -1761,9 +1720,9 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>25</v>
@@ -1775,10 +1734,10 @@
         <v>23</v>
       </c>
       <c r="E33" s="4">
-        <v>43133</v>
+        <v>43317</v>
       </c>
       <c r="F33" s="7">
-        <v>9.6064814814814808E-4</v>
+        <v>6.215277777777777E-3</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>111</v>
@@ -1787,9 +1746,9 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>25</v>
@@ -1804,7 +1763,7 @@
         <v>43317</v>
       </c>
       <c r="F34" s="7">
-        <v>6.215277777777777E-3</v>
+        <v>3.3680555555555551E-3</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>111</v>
@@ -1813,24 +1772,24 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="4">
-        <v>43317</v>
+        <v>43129</v>
       </c>
       <c r="F35" s="7">
-        <v>3.3680555555555551E-3</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>111</v>
@@ -1839,9 +1798,9 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>21</v>
@@ -1856,7 +1815,7 @@
         <v>43129</v>
       </c>
       <c r="F36" s="7">
-        <v>1.3888888888888889E-4</v>
+        <v>3.5879629629629635E-4</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>111</v>
@@ -1865,24 +1824,24 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="4">
-        <v>43129</v>
+        <v>43134</v>
       </c>
       <c r="F37" s="7">
-        <v>3.5879629629629635E-4</v>
+        <v>5.1967592592592595E-3</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>111</v>
@@ -1891,9 +1850,9 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -1908,7 +1867,7 @@
         <v>43134</v>
       </c>
       <c r="F38" s="7">
-        <v>5.1967592592592595E-3</v>
+        <v>4.8842592592592592E-3</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>111</v>
@@ -1917,24 +1876,24 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="4">
-        <v>43134</v>
+        <v>42947</v>
       </c>
       <c r="F39" s="7">
-        <v>4.8842592592592592E-3</v>
+        <v>1.6782407407407406E-3</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>111</v>
@@ -1943,24 +1902,24 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>26</v>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="4">
-        <v>42947</v>
+        <v>43134</v>
       </c>
       <c r="F40" s="7">
-        <v>1.6782407407407406E-3</v>
+        <v>2.5115740740740741E-3</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>111</v>
@@ -1969,9 +1928,9 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>44</v>
@@ -1983,10 +1942,10 @@
         <v>23</v>
       </c>
       <c r="E41" s="4">
-        <v>43134</v>
+        <v>43317</v>
       </c>
       <c r="F41" s="7">
-        <v>2.5115740740740741E-3</v>
+        <v>4.7569444444444447E-3</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>111</v>
@@ -1995,9 +1954,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>44</v>
@@ -2009,10 +1968,10 @@
         <v>23</v>
       </c>
       <c r="E42" s="4">
-        <v>43317</v>
+        <v>43137</v>
       </c>
       <c r="F42" s="7">
-        <v>4.7569444444444447E-3</v>
+        <v>3.9120370370370368E-3</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>111</v>
@@ -2021,9 +1980,9 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>44</v>
@@ -2038,7 +1997,7 @@
         <v>43137</v>
       </c>
       <c r="F43" s="7">
-        <v>3.9120370370370368E-3</v>
+        <v>2.0601851851851853E-3</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>111</v>
@@ -2047,9 +2006,9 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
@@ -2064,7 +2023,7 @@
         <v>43137</v>
       </c>
       <c r="F44" s="7">
-        <v>2.0601851851851853E-3</v>
+        <v>1.0069444444444444E-3</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>111</v>
@@ -2073,9 +2032,9 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>44</v>
@@ -2090,7 +2049,7 @@
         <v>43137</v>
       </c>
       <c r="F45" s="7">
-        <v>1.0069444444444444E-3</v>
+        <v>1.3657407407407409E-3</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>111</v>
@@ -2099,9 +2058,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>44</v>
@@ -2116,7 +2075,7 @@
         <v>43137</v>
       </c>
       <c r="F46" s="7">
-        <v>1.3657407407407409E-3</v>
+        <v>2.0486111111111113E-3</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>111</v>
@@ -2125,9 +2084,9 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>44</v>
@@ -2142,7 +2101,7 @@
         <v>43137</v>
       </c>
       <c r="F47" s="7">
-        <v>2.0486111111111113E-3</v>
+        <v>2.3611111111111111E-3</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>111</v>
@@ -2151,24 +2110,24 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="4">
-        <v>43137</v>
+        <v>43133</v>
       </c>
       <c r="F48" s="7">
-        <v>2.3611111111111111E-3</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>111</v>
@@ -2177,15 +2136,15 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>23</v>
@@ -2194,7 +2153,7 @@
         <v>43133</v>
       </c>
       <c r="F49" s="7">
-        <v>5.3240740740740744E-4</v>
+        <v>8.2175925925925917E-4</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>111</v>
@@ -2203,12 +2162,12 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>22</v>
@@ -2217,10 +2176,10 @@
         <v>23</v>
       </c>
       <c r="E50" s="4">
-        <v>43133</v>
+        <v>43134</v>
       </c>
       <c r="F50" s="7">
-        <v>8.2175925925925917E-4</v>
+        <v>7.7546296296296304E-4</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>111</v>
@@ -2229,9 +2188,9 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>37</v>
@@ -2243,10 +2202,10 @@
         <v>23</v>
       </c>
       <c r="E51" s="4">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="F51" s="7">
-        <v>7.7546296296296304E-4</v>
+        <v>8.564814814814815E-4</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>111</v>
@@ -2255,9 +2214,9 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>37</v>
@@ -2272,7 +2231,7 @@
         <v>43137</v>
       </c>
       <c r="F52" s="7">
-        <v>8.564814814814815E-4</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>111</v>
@@ -2281,24 +2240,24 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E53" s="4">
-        <v>43137</v>
+        <v>42940</v>
       </c>
       <c r="F53" s="7">
-        <v>5.0925925925925921E-4</v>
+        <v>4.4212962962962956E-3</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>111</v>
@@ -2307,9 +2266,9 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>39</v>
@@ -2324,7 +2283,7 @@
         <v>42940</v>
       </c>
       <c r="F54" s="7">
-        <v>4.4212962962962956E-3</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>111</v>
@@ -2333,24 +2292,24 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E55" s="4">
-        <v>42940</v>
+        <v>43134</v>
       </c>
       <c r="F55" s="7">
-        <v>4.3981481481481481E-4</v>
+        <v>1.9027777777777779E-2</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>111</v>
@@ -2359,9 +2318,9 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>95</v>
@@ -2376,7 +2335,7 @@
         <v>43134</v>
       </c>
       <c r="F56" s="7">
-        <v>1.9027777777777779E-2</v>
+        <v>2.9386574074074075E-2</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>111</v>
@@ -2385,24 +2344,24 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E57" s="4">
-        <v>43134</v>
+        <v>42777</v>
       </c>
       <c r="F57" s="7">
-        <v>2.9386574074074075E-2</v>
+        <v>3.0324074074074073E-3</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>111</v>
@@ -2411,9 +2370,9 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>96</v>
@@ -2428,7 +2387,7 @@
         <v>42777</v>
       </c>
       <c r="F58" s="7">
-        <v>3.0324074074074073E-3</v>
+        <v>1.6319444444444445E-3</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>111</v>
@@ -2437,24 +2396,24 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E59" s="4">
         <v>42777</v>
       </c>
-      <c r="F59" s="7">
-        <v>1.6319444444444445E-3</v>
+      <c r="F59" s="9">
+        <v>6.5509259259259262E-3</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>111</v>
@@ -2463,9 +2422,9 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>96</v>
@@ -2477,10 +2436,10 @@
         <v>101</v>
       </c>
       <c r="E60" s="4">
-        <v>42777</v>
+        <v>42779</v>
       </c>
       <c r="F60" s="9">
-        <v>6.5509259259259262E-3</v>
+        <v>2.5925925925925925E-3</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>111</v>
@@ -2489,9 +2448,9 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>96</v>
@@ -2503,10 +2462,10 @@
         <v>101</v>
       </c>
       <c r="E61" s="4">
-        <v>42779</v>
+        <v>42780</v>
       </c>
       <c r="F61" s="9">
-        <v>2.5925925925925925E-3</v>
+        <v>5.0347222222222225E-3</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>111</v>
@@ -2515,24 +2474,24 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E62" s="4">
-        <v>42780</v>
+        <v>42940</v>
       </c>
       <c r="F62" s="9">
-        <v>5.0347222222222225E-3</v>
+        <v>8.2175925925925917E-4</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>111</v>
@@ -2541,24 +2500,24 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E63" s="4">
-        <v>42940</v>
+        <v>42941</v>
       </c>
       <c r="F63" s="9">
-        <v>8.2175925925925917E-4</v>
+        <v>1.5624999999999999E-3</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>111</v>
@@ -2567,24 +2526,24 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E64" s="4">
-        <v>42941</v>
+        <v>43133</v>
       </c>
       <c r="F64" s="9">
-        <v>1.5624999999999999E-3</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>111</v>
@@ -2593,15 +2552,15 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>23</v>
@@ -2610,7 +2569,7 @@
         <v>43133</v>
       </c>
       <c r="F65" s="9">
-        <v>5.2083333333333333E-4</v>
+        <v>1.9675925925925926E-4</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>111</v>
@@ -2619,24 +2578,24 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="4">
-        <v>43133</v>
-      </c>
-      <c r="F66" s="9">
-        <v>1.9675925925925926E-4</v>
+        <v>43317</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1.4699074074074074E-3</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>111</v>
@@ -2645,12 +2604,12 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>22</v>
@@ -2662,7 +2621,7 @@
         <v>43317</v>
       </c>
       <c r="F67" s="7">
-        <v>1.4699074074074074E-3</v>
+        <v>1.2037037037037038E-3</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>111</v>
@@ -2671,9 +2630,9 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>21</v>
@@ -2685,10 +2644,10 @@
         <v>23</v>
       </c>
       <c r="E68" s="4">
-        <v>43317</v>
+        <v>43319</v>
       </c>
       <c r="F68" s="7">
-        <v>1.2037037037037038E-3</v>
+        <v>1.5393518518518519E-3</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>111</v>
@@ -2697,9 +2656,9 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>21</v>
@@ -2714,7 +2673,7 @@
         <v>43319</v>
       </c>
       <c r="F69" s="7">
-        <v>1.5393518518518519E-3</v>
+        <v>1.3310185185185185E-3</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>111</v>
@@ -2723,24 +2682,24 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E70" s="4">
-        <v>43319</v>
+        <v>42947</v>
       </c>
       <c r="F70" s="7">
-        <v>1.3310185185185185E-3</v>
+        <v>4.2824074074074075E-4</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>111</v>
@@ -2749,24 +2708,24 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>26</v>
+      <c r="C71" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E71" s="4">
-        <v>42947</v>
+        <v>43317</v>
       </c>
       <c r="F71" s="7">
-        <v>4.2824074074074075E-4</v>
+        <v>8.449074074074075E-4</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>111</v>
@@ -2775,12 +2734,12 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>22</v>
@@ -2789,10 +2748,10 @@
         <v>23</v>
       </c>
       <c r="E72" s="4">
-        <v>43317</v>
+        <v>43328</v>
       </c>
       <c r="F72" s="7">
-        <v>8.449074074074075E-4</v>
+        <v>3.2060185185185191E-3</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>111</v>
@@ -2801,9 +2760,9 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>97</v>
@@ -2818,7 +2777,7 @@
         <v>43328</v>
       </c>
       <c r="F73" s="7">
-        <v>3.2060185185185191E-3</v>
+        <v>2.0023148148148148E-3</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>111</v>
@@ -2827,9 +2786,9 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>97</v>
@@ -2844,7 +2803,7 @@
         <v>43328</v>
       </c>
       <c r="F74" s="7">
-        <v>2.0023148148148148E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>111</v>
@@ -2853,9 +2812,9 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>97</v>
@@ -2870,7 +2829,7 @@
         <v>43328</v>
       </c>
       <c r="F75" s="7">
-        <v>3.472222222222222E-3</v>
+        <v>2.3958333333333336E-3</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>111</v>
@@ -2879,9 +2838,9 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>97</v>
@@ -2896,7 +2855,7 @@
         <v>43328</v>
       </c>
       <c r="F76" s="7">
-        <v>2.3958333333333336E-3</v>
+        <v>2.3148148148148151E-3</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>111</v>
@@ -2905,24 +2864,24 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E77" s="4">
-        <v>43328</v>
+        <v>42943</v>
       </c>
       <c r="F77" s="7">
-        <v>2.3148148148148151E-3</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>111</v>
@@ -2931,9 +2890,9 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>98</v>
@@ -2948,7 +2907,7 @@
         <v>42943</v>
       </c>
       <c r="F78" s="7">
-        <v>4.0509259259259258E-4</v>
+        <v>1.7939814814814815E-3</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>111</v>
@@ -2957,9 +2916,9 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>98</v>
@@ -2974,7 +2933,7 @@
         <v>42943</v>
       </c>
       <c r="F79" s="7">
-        <v>1.7939814814814815E-3</v>
+        <v>8.9120370370370362E-4</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>111</v>
@@ -2983,24 +2942,24 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E80" s="4">
-        <v>42943</v>
+        <v>43330</v>
       </c>
       <c r="F80" s="7">
-        <v>8.9120370370370362E-4</v>
+        <v>3.2870370370370367E-3</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>111</v>
@@ -3009,24 +2968,24 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E81" s="4">
-        <v>43330</v>
+        <v>43319</v>
       </c>
       <c r="F81" s="7">
-        <v>3.2870370370370367E-3</v>
+        <v>1.0069444444444444E-3</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>111</v>
@@ -3035,9 +2994,9 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>99</v>
@@ -3052,7 +3011,7 @@
         <v>43319</v>
       </c>
       <c r="F82" s="7">
-        <v>1.0069444444444444E-3</v>
+        <v>6.134259259259259E-4</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>111</v>
@@ -3061,24 +3020,24 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E83" s="4">
-        <v>43319</v>
+        <v>42780</v>
       </c>
       <c r="F83" s="7">
-        <v>6.134259259259259E-4</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>111</v>
@@ -3087,9 +3046,9 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>100</v>
@@ -3104,7 +3063,7 @@
         <v>42780</v>
       </c>
       <c r="F84" s="7">
-        <v>1.3888888888888889E-3</v>
+        <v>3.2291666666666666E-3</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>111</v>
@@ -3113,9 +3072,9 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>100</v>
@@ -3130,7 +3089,7 @@
         <v>42780</v>
       </c>
       <c r="F85" s="7">
-        <v>3.2291666666666666E-3</v>
+        <v>3.414351851851852E-3</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>111</v>
@@ -3139,9 +3098,9 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>100</v>
@@ -3156,7 +3115,7 @@
         <v>42780</v>
       </c>
       <c r="F86" s="7">
-        <v>3.414351851851852E-3</v>
+        <v>1.1458333333333333E-3</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>111</v>
@@ -3165,24 +3124,24 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E87" s="4">
-        <v>42780</v>
+        <v>42941</v>
       </c>
       <c r="F87" s="7">
-        <v>1.1458333333333333E-3</v>
+        <v>4.9768518518518521E-4</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>111</v>
@@ -3191,24 +3150,24 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E88" s="4">
-        <v>42941</v>
+        <v>42931</v>
       </c>
       <c r="F88" s="7">
-        <v>4.9768518518518521E-4</v>
+        <v>1.2037037037037038E-3</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>111</v>
@@ -3217,90 +3176,87 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>97</v>
+    <row r="89" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>23</v>
+        <v>102</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="E89" s="4">
-        <v>42931</v>
+        <v>43886</v>
       </c>
       <c r="F89" s="7">
-        <v>1.2037037037037038E-3</v>
+        <v>1.5428240740740741E-2</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>104</v>
       </c>
+    </row>
+    <row r="90" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="B90" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E90" s="4">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="F90" s="7">
-        <v>1.5428240740740741E-2</v>
+        <v>1.3425925925925925E-3</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>108</v>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="4">
-        <v>43887</v>
+        <v>31</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="13">
+        <v>43892</v>
       </c>
       <c r="F91" s="7">
-        <v>1.3425925925925925E-3</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>31</v>
@@ -3312,32 +3268,9 @@
         <v>43892</v>
       </c>
       <c r="F92" s="7">
-        <v>1.2847222222222223E-3</v>
+        <v>3.0671296296296297E-3</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E93" s="13">
-        <v>43892</v>
-      </c>
-      <c r="F93" s="7">
-        <v>3.0671296296296297E-3</v>
-      </c>
-      <c r="G93" s="10" t="s">
         <v>111</v>
       </c>
     </row>

--- a/corpus/mansi/meta.xlsx
+++ b/corpus/mansi/meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\GitHub\mansi_corpus\corpus\mansi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6DE356-DD81-409B-A449-D8F6481E2CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506CA3AE-2585-4CB0-A786-AEBBE29AE27E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,9 +405,6 @@
     <t>BP_AE_AV_DZh_SP_shlyapa2</t>
   </si>
   <si>
-    <t>AAA_DZh_300118_medved</t>
-  </si>
-  <si>
     <t>AAA_DZh_SP_300118_wolfs.eaf</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>Хозумова Светлана Герасимовна</t>
+  </si>
+  <si>
+    <t>AAA_DZh_SP_300118_medved.eaf</t>
   </si>
 </sst>
 </file>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,8 +954,8 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>120</v>
+      <c r="A2" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="3" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="4" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>21</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="5" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>44</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="7" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="8" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>47</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="9" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>47</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="10" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="11" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="12" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>102</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="13" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>37</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="14" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>37</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="15" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>39</v>
